--- a/news_data/2015_03.xlsx
+++ b/news_data/2015_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,36 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>개그콘서트 이연, “제주도에서 관광경영학 전공” 반전</t>
+  </si>
+  <si>
+    <t>'제주도-베트남' 관광협회, 직항기 등 시장다변화 발판마련</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회, 재선 후 첫 임원구성 이사회 개최</t>
+  </si>
+  <si>
+    <t>제주도 공영관광지 30곳 운영실태 평가</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 현장체험학습 안전과정 교육 실시</t>
+  </si>
+  <si>
+    <t>'제주도에 반한 유커'…2명중 1명은 제주 관광</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 침체 日 관광시장 활성화 모색</t>
+  </si>
+  <si>
+    <t>제주도 폭우로 '엉또폭포' 장관...관광객들 탄성</t>
+  </si>
+  <si>
+    <t>2015 제주도 공영관광지 운영평가</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치 마케팅 총력</t>
+  </si>
+  <si>
     <t>제주도 무슬림 관광객 환대 인프라 추진</t>
   </si>
   <si>
@@ -52,28 +82,52 @@
     <t>김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다"</t>
   </si>
   <si>
-    <t>[라이프 365] '제주도에 반한 유커'…절반은 제주 관광 外 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 연합뉴스 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 연합뉴스 언론사 구독 해지되었습니다. [라이프 365] '제주도에 반한 유커'…절반은 제주 관광 外 입력2015.03.17. 오전 11:16 수정2015.03.17. 오전 11:18 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [라이프 365] '제주도에 반한 유커'…절반은 제주 관광 外▶ '제주도에 반한 유커'…절반은 제주 관광▶ 외국인 한국음식 평가 "그냥 그래"…평점 C▶ '웰빙 바람'…샐러드 채소, '국민채소'에 등극▶ 4월 국민연금수급자 1.3% 오른 연금 받는다▶ 봄 오는 소리에 인테리어 상품 판매 '쑥쑥'(끝)[이 시각 많이 본 기사]☞ 진주 인력공사 사무실서 '묻지마 살인' 3명 사상☞ 투신직전 남성에 "뛰어내려" 외치고 촬영한 10대들 ☞ 신림동 연쇄방화, 범인은 공익요원…화나면 술 마시고 범행 ☞ 맥주 한잔한 전과자, 음주단속에 놀라 13㎞ 심야추격전 ☞ "교도소 가고싶다"…제 발로 경찰서 찾은 좀도둑 ▶연합뉴스 앱 지금 바로 다운받기~▶ [오늘의 HOT] 꽃으로 물들은 런웨이&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; Copyright ⓒ 연합뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 섹션분류를 하지 않았습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 연합뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 연합뉴스 헤드라인 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 尹 "감사원, 독립운영 헌법기관…대통령 언급은 적절치 않아" '감사원 서면조사 文반발' 질문에 답변…'진상규명 성역없다'엔 "일반적 원칙" 정아란 이동환 기자 = 윤석열 대통령은 4일 감사원이 서해 공무원 피격 사건과 관련, 문재인 전 대통령에 대한 서면조사를 통보하고 문 전 이재명 "文겨냥 정치탄압 노골화…독재정권처럼 공포정치" 尹대통령 겨냥 "적반하장격 언론탄압…자신을 좀 되돌아보시라" 박홍근 "감사원 폭주 도 넘어…尹정부 충직한 사냥개 자인" 김남권 정윤주 기자 = 더불어민주당 이재명 대표는 4일 문재인 전 대통령에 대한 감사원의 서면 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 9월 전기차 판매대수 전월대비 현대차 14%, 기아 22% 각각 줄어 9월 전체 車판매는 전년 동월 대비 현대차 11%, 기아 6%씩 증가 김태종 특파원 = 한국산 전기차에 대한 보조금 지급 차별 논란으로 우려를 낳 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 제목 '윤석열차'…조종석엔 김건희 여사 추정 인물 윤석열 대통령을 풍자한 만화 작품이 최근 개최된 부천국제만화축제에서 전시돼 찬반 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 9월 30일부터 10월 3일까지 이전 뉴스들 보기 3 다음 뉴스들 보기 연합뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 연합뉴스 헤드라인 더보기 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 1시간전 尹 "감사원, 독립운영 헌법기관…대통령 언급은 적절치 않아" 48분전 이재명 "文겨냥 정치탄압 노골화…독재정권처럼 공포정치" 18분전 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 2시간전 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 4시간전 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 1시간전 연합뉴스 랭킹 뉴스 오전 8시~9시까지 집계한 결과입니다. 오전 6시~9시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 2시간전 2 원피스가 된 낚시조끼…파리패션위크 찾은 韓업사이클링 의상 1일전 3 고물가·강달러에 길고양이 '유탄'…캣맘들 사룟값 걱정 4시간전 4 뉴욕증시, 금리부담 완화에 급반등…다우 2.7%↑·S&amp;P 2.6%↑ 4시간전 5 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 4시간전 1 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 14시간전 2 시장충격 선제대응…당국, 증안펀드에 공매도금지 카드 '만지작' 4시간전 3 "文정부 '탈원전하면 5년후 전기요금 인상 불가피' 알고있었다" 3시간전 4 고물가·강달러에 길고양이 '유탄'…캣맘들 사룟값 걱정 4시간전 5 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 2시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 600억짜리 최신형 전투기 또 '산산조각'…러軍, 계속되는 굴욕 최근 우크라이나 동부 도네츠크 리만 지역에서 수백억원에 달하는 러시아 전투기가 박살 난 채 발견됐다. 2일(현지시간) 우크라이나 공군사령부는 동부 요충지인 리만에서 러시아 전투기 수호이(Su)-34 파편을 찾았다고 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 쌍방울그룹이 북한 광물자원 개발의 대가로 북측에 1천만달러 상당 내의를 제공하려 한 정황이 국가정보원 내부 문건으로 파악됐다. 쌍방울의 대북사업 관련 뇌물 혐의로 이화영 전 부지사가 구속된 가운데 북측과 쌍방울 사이 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 결혼식날 신부 혼자 탄 차에 발길질한 여성…따지자 "더러운 X" 결혼식 당일 신부가 타 있는 차량에 이유 없이 발길질하고, 이에 신부가 항의하자 사과도 하지 않고 되레 욕설을 한 여성의 행태가 알려져 빈축을 사고 있다. 최근 한문철 변호사가 운영하는 유튜브 채널 '한문철 TV'에 칼 든 검사, 조종석엔 김건희...고등학생이 그린 '윤석열차' 논란 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시된 것으로 확인됐다. 이 사실이 알려지며 온라인상에서도 화제가 되고 있다. 3일 한국만화영 승승장구하던 아시아나도 "거덜 날 판"…항공사들 '초비상' 아시아나항공과 저가항공사(LCC)들이 올 3분기 말 기준 ‘완전 자본잠식’에 빠질 위기에 처했다. 항공기 구매 또는 리스 과정에서 발생한 막대한 달러 빚 때문이다. 최근 원·달러 환율이 급등해 달러 부채를 원화로 환 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 휴대전화를 충전하던 중 보조 배터리가 갑자기 폭발해 소비자가 심한 화상을 입었지만, 배터리 제조업체의 사후 대처에 논란이 일고 있다. 연합뉴스 보도에 따르면 최근 경기도 이천시에 거주 중인 30대 A씨와 아내는 최근 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 “잘 챙겨 보겠습니다. 망 사용료 법 문제점이 있어 보입니다.” 지난 2일 자정 직전에 이재명 더불어민주당 대표는 자신의 트위터에 이같은 글을 적었다. ‘망 사용료’ 지불을 의무화하는 법안의 문제점을 지적한 트위터 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, “사령관을 발가벗겨서...” 리만서 퇴각한 러, 내부서도 군부 조롱 러시아군이 우크라이나 동부 핵심 요충지인 리만에서 패퇴한 가운데, 러시아 국내에서도 이를 놓고 비난 여론이 일고 있다고 외신들이 2일(현지 시각) 보도했다. 미국 워싱턴포스트(WP)는 러시아군이 리만에서 퇴각해 새로 [포착] 러軍 퇴각한 리만서 500억대 Su-34 전투기 ‘공중분해’ 굴욕 러시아군이 퇴각한 우크라이나 동부 요충지 리만에서 500억 원대 러시아 전투기가 산산조각이 난 채 발견됐다. 2일(이하 현지시간) 우크라이나 공군사령부는 동부 도네츠크 리만에서 러시아 신형 전술 폭격기 수호이(Su) 재생하기 재생시간02:17 열차표 '18억 어치' 샀다가 환불…왜 이런 일 벌어지나? 타지도 않을 고속열차 표를 한 달에 몇 백장, 금액으로는 몇 억 원어치씩 샀다가 시간이 지나면 취소하는 사람들이 있습니다. 실제 기차 타려는 사람들이 큰 불편을 겪게 되는데, 왜 이런 일이 벌어지는 건지, 그동안 걸 이전 뉴스들 보기 5 다음 뉴스들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 연합뉴스 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도, 이슬람권 관광객 대상 설문조사 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 이슬람권 관광객 대상 설문조사 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 이슬람권 관광객 대상 설문조사 송고시간2015-03-12 14:45 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 제주도와 제주도관광협회는 3∼6월 이슬람권 관광객 400명을 대상으로 제주 관광에 대한 설문조사를 진행한다고 12일 밝혔다. 이슬람권 관광객 유치 확대를 위한 이번 조사는 전문 연구기관이 제주관광 만족도와 지출규모, 여행 행태 등에 대해 설문하는 방식으로 이뤄진다. 제주도 등은 또 4월과 7월 중 관광사업체 100곳을 대상으로 이슬람 문화에 대한 소양을 교육하며, '할랄' 전문 레스토랑 개설도 지원하기로 했다. 할랄은 이슬람 율법에 따라 먹거나 사용할 수 있다는 뜻으로, 이슬람의 매우 까다로운 생활습관을 의미한다. 광고 도관광협회는 지난 6일 제주이슬람 문화센터와 이슬람 문화교육 시행 등을 위한 업무협약을 맺었다. 오문향 도관광협회 정책팀장은 "이슬람 교인은 동남아시아와 중동, 아프리카 지역을 합하면 전 세계 인구의 약 25％를 차지한다"며 "이 가운데 인도네시아와 말레이시아, 싱가포르 등의 동남아시아 국가는 경제성장을 발판으로 외국여행 수요가 점차 증가하고 있다"고 말했다. 도관광협회는 인도네시아·말레이시아·싱가포르 3개 나라에서 이슬람 관광객 총 6만8천108명이 지난해 제주를 찾은 것으로 추정하고 있다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/03/12 14:45 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:19 [영상] "K-방산, 올해 28조원 수출 전망"…독일·중국 제치고 빅4 진입? 영상 기사 재생시간 02:04 [영상] 펑! 드럼통 터지고 사람 날아가고…스페인 과학축제 중 폭발사고 영상 기사 재생시간 02:52 [영상] 우크라, 푸틴 합병 선언 하루만에 요충지 탈환…핵전쟁 위험고조 영상 기사 재생시간 01:54 [영상] 넘어지고 깔리며…인도네시아 축구장서 난동, 최소 129명 사망 영상 기사 재생시간 01:36 [영상] 배달통 들고 건물 위로 슝!…"첫 음식배달 제트맨" SNS 시끌 영상 기사 재생시간 03:07 [영상] 사방이 뻥 뚫린 짓다 만 아파트에 사는 중국인들…무슨 일? 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 이스라엘 북부 유적지서 동로마제국 금화 무더기 발굴 YG, 제니·뷔 사생활 사진 유포자 경찰에 수사의뢰 킴 카다시안, 인스타로 가상화폐 '뒷광고'…18억원 벌금 폭탄 유튜브 자동추천 없어지나…美 대법, 'SNS업체 면책권' 심리키로 구글 번역기에 '김치용 배추' 넣으니…'Chinese cabbage' 검색 "월급 줄 돈 없다"…기증받은 인체조직 헐값 판매한 공공기관 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓" 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 "월급 줄 돈 없다"…기증받은 인체조직 헐값 판매한 공공기관 YG, 제니·뷔 사생활 사진 유포자 경찰에 수사의뢰 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓" 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 정부조직개편안 조만간 발표…여가부 폐지·동포청 신설 관측(종합) 野 "尹정부가 노린 것은 결국 文…대국민 선전포고" 강력 규탄 정부조직개편안 조만간 발표…여가부 폐지·동포청 신설 관측(종합2보) 킴 카다시안, 인스타로 가상화폐 '뒷광고'…18억원 벌금 폭탄(종합) 심야택시 호출료 인상…배달로 넘어간 기사 유턴시킨다 킴 카다시안, 인스타로 가상화폐 '뒷광고'…벌금 폭탄 10조원 규모 증안펀드 이달 중순 재가동한다 시장충격 선제대응…당국, 증안펀드에 공매도금지 카드 '만지작' 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 "대학교에 엘리베이터 설치를"…인권위 진정했던 윤종훈씨 별세 "월급 줄 돈 없다"…기증받은 인체조직 헐값 판매한 공공기관 개천절 세종대로서 3만명 대규모 집회…도심 혼잡(종합) 개천절 세종대로서 3만명 대규모 집회…도심교통 혼잡 이스라엘 북부 유적지서 동로마제국 금화 무더기 발굴 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 "美 여자축구 성추행 뿌리 깊은 악습"…조사 보고서 공개 인도네시아 축구장 참사에 어린이들도 참변…17명 압사 [르포] 세계 1위 반도체 장비업체의 R&amp;D 핵심, 메이단기술센터를 가다 "美 여자축구 성추행 뿌리 깊은 악습"…조사 보고서 공개 손흥민, 껄끄러운 프랑크푸르트 상대로 UCL 첫 골 도전 주전으로 당당하게…김하성, 한국인 4번째 MLB PS 안타 사냥 프로야구 SSG 1위 확정 연기…최하위 한화에 발목(종합) '가을 여왕' 김수지, 3주 연속 우승＋ 타이틀 방어 도전 YG, 제니·뷔 사생활 사진 유포자 경찰에 수사의뢰 싱어송라이터 알렉 벤저민 "한국은 지구상 가장 좋아하는 곳" '텐트 밖은' 제작진 "사람이 사람으로 보이는 예능이 목표" [클립트렌드] 금토드라마 접전…남궁민 '천원짜리 변호사' 승기 "문체부 산하 공공기관 31곳 중 16곳, 정원 536명 감축" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:04 [영상] 펑! 드럼통 터지고 사람 날아가고…스페인 과학축제 중 폭발사고 영상 기사 재생시간 02:52 [영상] 우크라, 푸틴 합병 선언 하루만에 요충지 탈환…핵전쟁 위험고조 영상 기사 재생시간 00:36 [영상구성] '지옥'이 된 그라운드…인도네시아 축구장 참사 뉴스 합참 "北 탄도미사일 4천500㎞ 비행"…추가도발 대비 추적·감시 尹 "감사원, 독립운영 헌법기관…대통령 언급은 적절치 않아" 10조원 규모 증안펀드 이달 중순 재가동한다 오늘 심야 택시난 대책 발표…호출료 올리고 파트타임제 도입 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소 광고 댓글 많은 뉴스 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓" 댓글수 156 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 댓글수 74 野 "尹정부가 노린 것은 결국 文…대국민 선전포고" 강력 규탄 댓글수 38 與 "전직 대통령이라고 성역 있을 순 없어"…'文 정조준' 맞불 댓글수 13 與 "전직 대통령이라고 성역 있을 순 없어"…'文 정조준' 맞불(종합) 댓글수 11 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
-  </si>
-  <si>
-    <t>국제전기자동차엑스포 조직위-제주도관광협회 MOU &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 국제전기자동차엑스포 조직위-제주도관광협회 MOU 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 국제전기자동차엑스포 조직위-제주도관광협회 MOU 기자명 고나연 기자 입력 2015.03.12 15:59 수정 2015.03.12 16:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 "엑스포 성공개최, 국내외 관광객 유치 적극 협력키로" (제주=국제뉴스) 고나연 기자 = 국제전기자동차엑스포 조직위원회와 제주도관광협회가 12일 오전 11시 제주국제컨벤션센터에서 업무협약식을 가졌다.이번 협약을 통해 양 기관은 제2회 국제전기자동차엑스포의 성공적 개최뿐만 아니라 향후 개최되는 국제전기자동차 엑스포와 관련해 지속적으로 긴밀하게 협력해 나갈 것을 약속했다.이는 제주에서 열리는 국제전기자동차엑스포를 성공적 추진하며, 엑스포를 통한 국내외 관광객 유치에 적극 협력하기로 뜻을 같이 했다.또한 두 기관은 상호 추진하는 사업에 대해 적극적으로 참여해 제주를 알리는데 같이 힘써나가기로 했다. 이 자리에서 김대환 국제전기자동차엑스포조직위원장은 "국제전기자동차엑스포와 제주관광의 발전이 함께 성장할 수 있는 기회가 된 것 같아 기쁘다"며 "제주관광을 위해 양 기관이 더욱 긴밀한 관계를 유지하게 될 것을 기대한다"고 말했다.김영진 제주도관광협회 회장도 "제주관광을 이끌어나가는 관광협회가 세계적인 국제전기자동차엑스포의 성공적 개최에 동참하게 되어 매우 뜻깊게 생각하며 제주도가 세계전기자동차의 메카로 도약하는 발판의 장이되기를 바란다"고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도-제주관광공사, 마이애미 크루즈박람회 참가 제주홍보 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-제주관광공사, 마이애미 크루즈박람회 참가 제주홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-제주관광공사, 마이애미 크루즈박람회 참가 제주홍보 기자명 고나연 기자 입력 2015.03.15 17:04 수정 2015.03.15 17:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주도와 제주관광공사(사장 최갑열)는 16일부터 19일까지 3일간 미국 마이애미에서 개최되는 세계 최대 규모의 크루즈산업 박람회인 '크루즈쉬핑 마이애미 2015'에 참가해 세계 크루즈산업 관계자들 대상 제주의 다양한 매력과 크루즈인프라를 홍보한다고 15일 밝혔다.도와 제주관광공사는 지속적인 국제크루즈의 제주 유치를 위해 마이애미 현지 관계자 대상 설명회 개최 및 홍보부스 운영 등을 통해 기항지 제주의 매력을 알린다.또한 곧 완공예정인 제주국제크루즈터미널과 제주항, 서귀포항의 향후 선석확충계획 등 크루즈인프라를 적극 홍보한다.이와 함께 이번 박람회 기간에 제주관광공사는 오는 8월 열리는 제3회 제주국제크루즈포럼의 홍보와 향후 공동으로 크루즈마케팅을 추진하기 위한 관계기관과의 협력을 다지는 만찬행사를 개최할 예정이다.도는 이번 행사에 홍보효과를 극대화해 제주국제크루즈포럼이 아시아를 대표하는 크루즈이벤트로 자리 잡는 데 초석을 마련한다. 제주국제크루즈포럼은 국내 최초 크루즈 전문포럼으로 2013년 10월 처음 개최됐으며, 지난해 제주특별자치도, 해양수산부가 공동으로 주최해 국내외 1000여명의 크루즈관계자들이 참가하는 등 성공적으로 개최된 바 있다.크루즈쉬핑 마이애미 박람회는 매년 3월 크루즈의 수도로 일컬어지는 미국 마이애미에서 개최되는 B2B 산업박람회로 업계 주요관계자 1만1000여명 및 127개국 900여개의 업체가 컨퍼런스(회의) 및 전시에 참여한다.한편 지난해 제주를 찾은 크루즈관광객은 59만명을 돌파하는 등 꾸준한 성장을 이어오고 있으며 올해 말까지 제주를 찾는 국제크루즈는 320항차, 크루즈관광객은 65만명에 이를 것으로 전망하고 있다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 '황금버스', 빈 차 공회전 언제까지… - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회 '황금버스', 빈 차 공회전 언제까지… 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회 '황금버스', 빈 차 공회전 언제까지… 제주CBS 박정섭 기자 메일보내기 2015-03-05 10:00 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 하루 탑승객 30명 안된 채 혈세만 줄줄 지난 4일 오후. 때마침 제주를 찾아온 꽃샘추위를 털어내며 제주도관광협회가 운행하는 시티투어버스 '제주황금버스'에 올랐다. 지난해 11월 11일 운행을 시작한지 100일을 넘은 현 시점에서 관광객들의 반응을 살피기 위해서다.외부와 내부 모두를 번뜩이는 황금색으로 치장하고, 차량번호 역시 중국에서 부를 상징하는 숫자 8과 장수를 의미하는 9를 넣은 번호판까지 우선 주위 시선을 끄는 데는 성공했다.오전 8시부터 밤 9시까지 제주웰컴센터에서 매시 정각 출발해 제주시내 22개 정거장을 한차례 도는 데 걸리는 시간은 100분.예사롭지 않은 모양새에 특히 외국관광객의 관심을 끄는 데는 성공했을지 몰라도 예상대로 승객을 끄는 데는 오늘도 실패했다.이 날 기자가 탄 버스가 제주시내를 한바퀴 돌아오는 동안 버스에 탑승한 관광객은 모두 7명. 내국인 4명과 말레이시아인 1명, 싱가포르인 2명이 전부다.출발지에서 버스에 오른 말레이시아 관광객 재키(26)씨는 "넓은 버스에 탑승객이 나혼자뿐이어서 처음엔 무서웠다"며 서툰 한국말로 탑승 소감을 밝혔다.제주공항에서 탑승한 관광객 김영희(61·광주광역시)씨는 "이번이 내 생애 첫 제주 여행이라 택시를 타기가 그래서 숙박업소까지 이동하는 데 황금버스를 이용하게 됐다"며 시티투어버스 탑승에 큰 의미를 부여하지는 않았다.중국 관광객을 겨냥한 제주도관광협회 시티투어 버스 사업의 공회전이 길어지고 있다.수억원의 도민 혈세가 투입되고 있는데도 불구, 하루에 불과 20명 안팎이 탑승하는 등 제주관광 경쟁력을 높이는데 아무런 도움이 되지 않아 사업 타당성을 되짚어야 한다는 목소리만 커지고 있다. 제주도관광협회에 따르면 지난해 11월11일 첫 운행이후 지난달까지 황금버스 탑승객은 2,877명.하루 평균 30명이 되지 않는다. 하루 12차례 운행되는 걸 감안하면 버스 한차례 운행당 탑승객이 3명도 되지 않는 셈이다.지난해 버스 정류소 등 인프라구축비에 4억5천만원의 제주도 보조금이 투입되고, 올해 다시 3억5천만원이 지원되는 등 8억원의 혈세가 들어가는데도 효과가 없다보니 '밑빠진 독에 물붓기'사업이란 지적을 피하지 못하고 있다.성인 만2천원, 청소년 만원이라는 탑승요금 역시 외국관광객들이 비싸다며 꺼리고 있다는 얘기도 나돈다.제주도의회의 2015년도 업무보고 자리에서 도의원들은 "타당성도 없는 사업에 이렇게 예산을 쏟아 부어도 되는 것이냐"며 질타의 목소리가 쏟아지기도 했다. 그렇다고 황금버스가 마냥 욕을 먹을 정도로 콘텐츠가 나쁜 건 아니다.GPS방식을 도입해 영어와 중국어, 일본어 등 4개 국어로 각 정류장 주변 관광지와 도시 특성을 소개하고, 탑승객에게 삼다수와 열쇠고리 등을 증정하는 이벤트도 마련된다.다양한 제주관광 안내 책자가 좌석마다 비치되고, 탑승객을 위해 제주시내 상가들과 할인 제휴도 맺었다.개별 관광객들이 선호하는 재래시장과 수목원, 주요 관광지를 빠짐없이 경유하는 것 역시 황금버스의 매력 가운데 하나다.제주도관광협회 사업운영실 양성우 실장은 "사업 초기인데다 관광 비수기인 겨울철 탑승객이 저조할 수밖에 없었다"며 "개별관광객이 집중되는 여름이 되면 좌석이 모자라 정류장을 지나쳐야 할 정도로 탑승객이 넘칠 것"이라고 장담했다. 더 클릭 다음 정권에 '1기 신도시' 넘긴 尹정부…주민들, '항의집회' 예고 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 "월급 줄 돈 없어"…기증받은 인체조직 헐값에 판 공공기관 北, 자강도서 IRBM 발사…일본 상공 통과해 태평양 낙하 가상화폐 뒷광고 딱 걸린 킴 카다시안, 18억원 '벌금 폭탄' 플로리다 사망자 100명 넘어…허리케인 이언 피해 눈덩이 "감사원, 與 '알박기' 지목 기관 30곳 자료요구…17곳 감사착수" 5·18진상규명조사위원회, 이르면 올해 내 암매장 추정지 추가 발굴 [단독]혈세지원 공무원·군인연금, 15년전 부실투자 112억 아직 미회수 [단독]'인터넷 속도저하' 보상 건당 459원…'솜방망이 처벌' 효과 미미 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도/서귀포 펜션 이로제주, 호텔식펜션으로 관광객에게 각광 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 제주도/서귀포 펜션 이로제주, 호텔식펜션으로 관광객에게 각광 발행일 : 2015-03-13 11:31 4계절 내내 관광객들의 발길이 끊이지 않는 국내 최고의 여행지 제주도에 봄이 찾아왔다. 차가운 겨울바람이 물러가면서 제주도의 봄을 만끽하기 위해 국내/외 관광객들의 수가 증가하고 있다. 제주도만이 품고 있는 아름다운 자연경관과 볼거리, 다양한 먹을거리도 여행의 즐거움을 높여주는 필수 요소다. 특히, 숙박은 여행 시 지친 몸과 마음에 휴식을 취하는 곳이기 때문에 숙박업소를 선정할 때에 신중해야 한다. 많은 사람이 선호하는 숙박시설 가운데 가장 인기가 높은 ‘펜션’은 가족, 연인, 친구와 함께 머물며 맛있는 요리도 함께 만들어 먹을 수 있고, 조용한 곳에서 편히 쉴 수 있기 때문에 찾는 이들이 많다. 펜션 중에서도 깔끔하고 진정한 힐링과 함께 가격대가 부담스럽지 않은 곳이 인기가 많은데, 호텔과 같은 쾌적한 객실을 보유하고 있으면서 가격은 호텔보다 저렴해 제주도 펜션 추천 1순위를 차지하는 곳이 있다. 제주도 남쪽 끝 대평리에 있는 제주도 펜션 ‘이로(IRO)제주펜션’은 호텔과 민박의 장점만을 부각한 신개념 호텔식 펜션으로 많은 관광객에게 호평을 받고 있다. 이로제주펜션은 객실마다 모던하고 깔끔한 인테리어로 호텔의 고급스러움을 접목해, 호텔과는 다르게 펜션 앞에 펼쳐진 아름다운 경관을 한눈에 볼 수 있도록 통유리를 설치했다. 또한 제주도의 따스하면서도 시원한 봄바람을 맞을 수 있도록 마련된 각 객실의 베란다에서 따스한 봄볕 아래 펼쳐지는 자연경관을 볼 수 있어 진정한 힐링을 선사한다. 또한, 개별 테라스가 있어 다른 이들의 시선에 구애 받지 않고 즐겁고 분위기 있는 바비큐 타임을 즐길 수도 있다. 이로제주의 객실은 Studio, Duplex 1Bed, Duplex 2Bed, Deluxe, Suite 등으로 나뉘어 있어 선택의 폭이 넓다. 지리적으로 마라도, 가파도, 한라산을 동시에 아우르는 이로제주는 자연의 氣를 받거나, 펜션 근처에 있는 명소들을 보기 위해 찾는 이들도 많다. 이로제주 인근에는 MBC에서 인기리에 방영되었던 드라마 &lt;구가의 서&gt;의 명장면을 탄생시킨 안덕계곡이 3Km 떨어진 곳에 자리하고 있다. 장선우 감독의 &lt;물고기 카페&gt;, &lt;인간극장&gt; 등의 방송을 통해 소개된 카페 ‘거닐다’를 보기 위한 관광객들의 발길이 이어지고 있다. 또한 이로제주는 올레길 8번 종점과 9번 시작점 인근에 위치해 있어 도보 여행 후 휴식을 위해 제주도펜션 이로제주를 찾는 관광객들도 많다. 제주도 가족펜션, 제주도 커플펜션으로 유명한 이로제주에서 여행에서 쌓인 피로를 풀고 진정한 힐링을 만끽해 보는 것은 어떨까. 제주도/서귀포 펜션 이로제주에 대한 자세한 사항 및 예약은 홈페이지(www.irojeju.com)를 통해 알 수 있다. 온라인뉴스팀 on-news@etnews.com 핫뉴스 in LIFE 1 송가인 전국투어 콘서트, 올해 남은 개최지는 어디? 2 “송가인, 먹는 것에 진심…美 투어 한식 먹어 살쪄”…정다경 ‘깜짝 폭로’ 3 송가인, 32년전 사진 공개..."꼭 그런 자세로 찍어야만 했니" 4 '파격 변신' 임영웅, 무슨 일 있었나? 5 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 사이버위협과 랜섬웨어, 공격 당하기 전에먼저 찾아내서 대응하세요- 특급 위기관리 방안 전수 하나의 플랫폼에서 모든 협업이 다 되는 Zoom 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 인니 여행사 초청 제주관광투어 진행 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 인니 여행사 초청 제주관광투어 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 인니 여행사 초청 제주관광투어 진행 기자명 고나연 기자 입력 2015.03.03 17:11 수정 2015.03.03 17:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도와 도관광협회(회장 김영진)는 2일부터 3일까지 인도네시아 대형 여행사인 바유부아나 여행사 사장 및 임원단을 초청해 제주관광 상품 개발을 위한 스터디투어를 진행했다고 3일 밝혔다.이번 스터디투어는 인도네시아 연휴기간을 겨냥해 고부가가치 제주관광 상품 개발을 위한 바유부아나 여행사의 실질적 의사 결정권을 갖고 있는 사장 및 고위 임원진이 직접 제주 우수관광 자원을 답사했다.이에 따라 적극적인 제주관광 상품 개발 확대와 잠재 가능성을 확인해 향후 동남아 관광객 제주 유치에 크게 기여 할 것으로 보고 있다. 또한 제주 첫 관문인 공항에서부터의 환대 분위기 조성을 통해 제주 친절 이미지 및 만족도를 제고시켜 국제관광 도시로서의 제주 위상을 드높여 나갔다. 관계자는 "앞으로 도관광협회는 고품격 질적성장을 위한 동남아 지역 신흥 관광시장의 고부가가치 잠재 관광객 수요 창출을 통해 도내 관광업계가 참여하는 실질적인 마케팅 활동을 지속적으로 전개해 나갈 계획"이라고 말했다.한편 '바유부아나(Bayu Buana Travel Services)' 여행사는 지난 1972년도에 설립해 직원 수가 500여명의 인도네시아 여행업계 TOP5에 속하는 대형 여행사다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다" &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다" 기자명 고나연 기자 입력 2015.03.02 15:03 수정 2015.03.02 15:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 “스마트 경영환경 구현도 강력 추진” ▲ 취임사하는 김영진 제주도관광협회 회장. (제주=국제뉴스) 고나연기자 = 2일 제주도관광협회에 따르면 이날 오후 2시 제주웰컴센터 3층 대회의실에서 제33대 제주특별자치도관광협회에 김영진 회장의 취임식이 개최됐다.이날 취임식에는 제주특별자치도관광협회 역대임원, 대의원, 업종별 분과위원회 운영위원 등이 참석해 내부 행사로 간소하게 진행됐다.김영진 회장은 이날 취임사에서 "지난 4년간 관광협회의 정체성을 다시 한번 정립하고, 제주관광종합포털사이트 구축 등 협회와 관광산업의 지속 가능한 발전의 토대를 마련 할 수 있었던 것은 관광가족들의 관심과 애정, 지지가 있었기에 가능했다"고 말했다.또한 "지금 관광산업은 혁명적인 변화가 진행되고 있다"며 "이런 변화의 흐름을 감지하고 이에 적응해 새로운 관광산업 생태계를 주도적으로 조성해나가는 것이 관광인들에게 주어진 지상과제"라고 강조했다. 이어 김회장은 "IT, 모바일, SNS가 지배하는 세상에 능동적이고 체계적으로 대응하기 위해 제주관광 산업 전반에 스마트 경영환경이 구현되도록 강력하게 추진해 나가겠다"고 포부도 밝혔다.그는 "주어진 3년이 제주관광의 역사에 길이 기억되도록 새로운 혁신의 길을 걸어 나가겠다"고 밝히며 변함없는 지지를 당부했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>'제주도-베트남' 관광협회, 직항기 등 시장다변화 발판마련 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 '제주도-베트남' 관광협회, 직항기 등 시장다변화 발판마련 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 '제주도-베트남' 관광협회, 직항기 등 시장다변화 발판마련 기자명 고나연 기자 입력 2015.03.29 15:34 수정 2015.03.29 15:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도관광협회 김영진회장(사진 왼쪽)은 지난 23일부터 27일까지 베트남을 방문해 베트남관광협회 응휀 휴 토회장(사진 오른쪽)과 업무협약을 체결했다. (제주=국제뉴스) 고나연기자 = 제주도와 도관광협회(회장 김영진)는 지난 23일부터 27일까지 동남아 지역 신흥 아세안 시장인 베트남을 방문해 베트남관광협회(회장 응휀 휴 토)와 직항 전세기 관광상품 공동 개발우호교류 협력 협약을 체결해 제주관광 시장의 다변화 확장을 위한 발판을 마련했다고 29일 밝혔다.또한 상호 교류촉진을 위한 관광․문화․스포츠 분야 우호교류 협력 협약을 체결해 제주관광 시장의 다변화 확장에 나섰다.이번 양 지역 관광단체 대표간 직접적인 교류협약 체결을 통해 베트남 현지 여행업계 대상 제주관광 인지도 및 신뢰도 제고와 제주관광 상품 개발․판매 동기 부여 등 동남아 관광객 제주 유치에 크게 기여할 것으로 협회는 내다봤다.특히 베트남관광협회장은 베트남 최대 여행사인 사이공투어리스트의 회장으로 제주-베트남 간 직항전세기 관광상품 개발과 현지 동호회를 대상으로 한 맞춤형 골프투어 및 마라톤 등 고부가가치 레저스포츠 상품 개발을 적극 추진하기로 합의했다. 또, 호치민 주재 베·한국제문화교류센터 김대종 총장을 도관광협회 제주 명예홍보위원으로 위촉해 제주관광 홍보사절단 역할을 수행키로 했고 협회 지정 제주관광홍보센터도 설치․운영하기로 했다.관광협회 관계자는 "민간차원의 적극적인 동남아 지역 우호교류 확대를 통한 업계 간 강력한 협력네트워크 구축 마련으로 제주관광 시장 다변화 도모 및 도민과 업계가 체감할 수 있는 신관광산업 생태계 조성에 진력를 다해 나갈 계획"이라고 말했다.한편 제주입도 베트남 관광객은 2013년도 1만8천여명, 2014년에는 3만여명으로 전년대비 56%가 증가했고, 올해 2월말 현재 1500여명의 베트남 관광객이 제주를 찾았다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회, 재선 후 첫 임원구성 이사회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 김영진 제주도관광협회, 재선 후 첫 임원구성 이사회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 피플인뉴스 김영진 제주도관광협회, 재선 후 첫 임원구성 이사회 개최 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.03.30 12:11 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 김영진 제주관광협회장.&lt;헤드라인제주&gt; 김영진 제주특별자치도관광협회 회장은 오는 31일 오전 11시 제주시 뉴크라운관광호텔 2층 연회장에서 제2차 이사회를 개최한다. 이번 개최 되는 이사회는 제33대 회장 취임과 임원진 구성후 처음으로 개최되는 이사회이다 이번 이사회에서는 제33대 임원구성 및 주요업무 보고와 함께 회의 목적사항을 의결한다. 한편 새롭게 구성되는 임기는 2018년 2월28일까지 3년이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 현장체험학습 안전과정 교육 실시 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 현장체험학습 안전과정 교육 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 현장체험학습 안전과정 교육 실시 기자명 고나연 기자 입력 2015.03.25 16:51 수정 2015.03.25 16:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도와 제주도관광협회는 24일부터 25일까지 제주웰컴센터 웰컴홀에서 대한적십자사 제주지사 공민정 전문강사를 초빙해 안전요원 양성을 위한 2015년도 제2차 현장체험학습 안전과정 교육을 실시했다고 밝혔다.지난 4~5일에 이어 개최한 이번 교육은 도 관광협회에서 안전과정 교육비 전액을 지원하고, 매월 2회에 걸쳐 안전과정교육을 실시하고 있다.관광협회는 도내 수학여행 등 교육여행 활성화차원에서 안전요원 공급이 원활히 진행되도록 해당 자격증 소지자들이 본 교육에 대한 관심과 적극적인 참여가 필요하다고 피력했다. 관계자는 "안전과정교육은 국내여행안내사, 국외여행인솔자, 청소년지도사, 간호사, 응급구조사, 교사, 경찰‧소방경력자, 소방안전교육사, 숲길체험지도사를 대상으로 진행된다"고 말했다.문의= 제주도관광협회 기획팀(064-741-8755) 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'제주도에 반한 유커'…2명중 1명은 제주 관광 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 '제주도에 반한 유커'…2명중 1명은 제주 관광 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 '제주도에 반한 유커'…2명중 1명은 제주 관광 송고시간2015-03-17 06:43 中文 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 전준상 기자 기자 페이지 올해 제주 찾는 중국인 17.8% 늘어난 337만명 이를 듯 (서울=연합뉴스) 전준상 기자 = 지난해 한국을 방문한 유커(遊客·중국인 관광객) 2명중 1명 꼴로 제주도 관광을 한 것으로 나타났다. 17일 한국관광공사·제주관광공사·여행업계에 따르면 지난해 한국을 찾은 유커는 612만7천명으로 전년의 432만7천명에 비해 41.6% 증가했다. 특히 제주도의 경우 항공직항편이나 크루즈, 환승형태로 입국한 중국인이 286만명으로 전년의 181만명보다 58%나 뛰어올랐다. 방한 중국인중 제주도를 찾는 비중이 2013년 41.8%에서 46.7%로 4.9%포인트나 늘었다. 광고 이처럼 제주도에 중국인이 몰리고 있는 것은 국내에서 유일하게 제주도 입국 유커에게는 비자면제혜택이 주어지면서 중국-제주간 항공편과 크루즈 운행이 증편됐기 때문이다. 실제 중국-제주간 직항편은 2013년 56편에서 2014년 90편으로 60.7%, 크루즈선 운항편도 30편에서 52편으로 73.3% 증가했다. 또 제주도의 자연경관에 대한 중국인들의 평판이 좋은데다, K-팝과 드라마 등 한류가 중국에서 인기를 끌고 있으며, 중국 위안화가 점진적으로 평가절상된 점도 '유커 유입'을 부채질하고 있다. 지리적으로 가깝다는 점도 한 몫하고 있다. 상하이에서는 비행기로 1시간, 베이징에서는 2시간 30분이면 제주도를 찾을 수 있다. 올해 제주도를 찾는 유커는 작년보다 17.8% 늘어난 337만명에 이를 것으로 전망되고 있다. 여행업계 관계자는 "제주도가 비자면제 지역인데다, 중국에서 제주도로 오는 단체여행 비용이 굉장히 저렴하기 때문에 중국인들이 부담없이 찾는 것 같다"고 설명했다. chunjs@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/03/17 06:43 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 김주형, 두 달 만에 또 PGA 정상…우즈보다 더 빨리 2승 도달(종합) KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 23 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 침체 日 관광시장 활성화 모색 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 침체 日 관광시장 활성화 모색 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 침체 日 관광시장 활성화 모색 기자명 고나연 기자 입력 2015.03.22 21:25 수정 2015.03.22 21:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 일본관광시장 현장 체험활동 전개 (제주=국제뉴스) 고나연기자 = 제주특별자치도관광협회(회장 김영진)는 침체일로인 일본 관광시장 활성화와 도내 관광업계의 글로벌 경쟁력 강화를 목적으로 일본 동경 일원에서 현장 체득활동을 실시했다고 22일 밝혔다.이번 해외 선진 관광자원 체득 및 현장조사는 제주방문 일본인 관광객 급감 등으로 제주-동경 노선 감축 국면극복과 외국인 관광객 수용태세 등에 대한 정보 취득을 위해 도내 관광사업체 종사자 60여명이 자발적으로 참가경비를 마련하는 등 협회 스스로 예산을 편성해 시행된 사업이다. ▲ 일본지역 현장답사 모습. 기간 중 협회 탐방단은 일본의 전통거리(고에도)와 온천, 산악관광 인프라 등을 체험하고, 관광 기념품 판매점 및 대형 아울렛 매장, 지역 농산물 판매 전문매장 등을 시찰하며 제주관광 인프라 및 서비스와 비교․평가하는 등 현장 체험을 통한 일본 관광시장의 이해(교육)의 시간을 가졌다.특히 협회 탐방단 기간 중 일본 국토교통성(관광청) 관계자와의 간담회를 통해 일본의 관광자원 및 2020년 동경올림픽 개최에 따른 외국인 관광객 유치목표 2000만명 달성을 위한 액션 프로그램에 대해 다양한 의견을 청취했다.이 자리에서 일본 관광청 관계자는 "현재 제주방문 일본인 관광객 감소의 주요 요인으로 일본의 ‘엔화 약세’와 함께 한․일 양국간의 정치적 요인 등도 관광객 감소로 작용됐다"는 견해를 비쳤다. 이는 가격 경쟁력에서 우위성 확보를 위해 한일 양국의 저비용항공사(LCC)의 적극적인 국제선 취항으로 접근성을 확보하고, 면세점 쇼핑 뿐 만 아니라 전통시장, 상점가, 서민식당 등을 이용하는 B급 관광상품 이나 비교적 경제력을 갖고 있는 수요자(실버층 등)를 타깃으로 하는 고부가 상품 등 다양한 상품개발과 프로모션을 진행할 필요가 있음을 피력했다.관계자는 “제주관광 제2의 해외시장인 일본시장에서의 안정적 수요 확보와 이를 통한 지역경제 활성화 도모를 위해 제주관광마라톤 축제 등 도내 개최 레저스포츠 대회 및 관광이벤트를 활용한 일본인 관광객 유치증진 등에 더욱 박차를 가해 나갈 예정”이라고 말했다.한편 올해 제주를 찾는 일본인 관광객은 2월 현재 약 7000여명으로 전년 동기대비 20여%의 감소세를 보이며 이로 인한 제주-일본 직항편도 감축(휴항) 등의 상황에 이르고 있다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 폭우로 '엉또폭포' 장관...관광객들 탄성 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 폭우로 '엉또폭포' 장관...관광객들 탄성 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 폭우로 '엉또폭포' 장관...관광객들 탄성 오미란 headlinejeju@headlinejeju.co.kr 승인 2015.03.18 17:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 200mm 이상 많은 비로 세찬 폭포수 엉또폭포의 위용스러운 대장관.&lt;헤드라인제주&gt; 18일 한라산에 많은 비가 내리면서 엉또폭포에 엄청난 양의 폭포수가 쏟아지고 있다.&lt;헤드라인제주&gt; 제주도 전역에 호우경보가 내려졌던 18일 한라산과 서귀포시권에 폭우가 쏟아진 가운데, 서귀포시 엉또폭포가 모처럼 위용스러운 대장관을 연출했다. 평소 물이 흐르지 않는 엉또폭포에는 이날 엄청난 양의 폭포수가 쏟아져 내려 관광객들의 이목을 사로잡았다. 이날 오후 4시까지 한라산 진달래밭에는 232.5mm의 많은 양의 비가 내린 것을 비롯해 서귀포시내 112.5mm, 중문 146.5mm를 기록했다. &lt;헤드라인제주&gt; 위용스런 자태를 보이고 있는 엉또폭포.&lt;헤드라인제주&gt; &lt;오미란 기자 / 작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>2015 제주도 공영관광지 운영평가 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 10:50 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 2015 제주도 공영관광지 운영평가 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 2015 제주도 공영관광지 운영평가 손혜철 승인 2015.03.21 15:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도가 2015년 공영관광지 운영평가를 추진한다고 밝혔다. 제주특별자치도 공영관광지 운영평가는 한라산국립공원 등 도내 공영관광지 30개소를 대상으로 공영관광지 관광객 환대서비스․정보제공․이용편의성․관광객 유치 마켓팅노력․운영개선노력 등을 평가하게 되며, 암행평가와 현장평가․관광객 만족도 설문조사를 함께 시행할 예정이다. 특히 , 금년 평가에서는 관광객 유치를 위한 공영관광지의 마켓팅 실적, 관광객․입장수입 증감 등 운영개선을 위한 공영관광지 자구노력이 평가에 반영될 수 있도록 추진해 나갈 계획이다. 평가는 오는 5월부터 11월까지 진행되며, 평가결과에 따라 우수공영관광지에 대해서는 평가포상계획에 따른 시상을 하게 되며, 그 결과는 12월 도 홈페이지 등을 통해 공표한다. 또한, 제주특별자치도는 공영관광지의 품격과 가치를 높여 나갈 수 있도록 평가결과에 따른 환류체계를 구축하여 지속적으로 관리해 나갈 예정이라고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 손혜철 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 옥천군, ‘정신건강의 날’ 및 옥천군정신건강복지센터 개소 10주년 기념 행사 개최 보은군 삼승면지역사회보장협의체, 독거노인 주거환경 개선 사업 앞장 보은군, 제37회 보은사우회 정기회원전 성료 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 골프관광객 유치 마케팅 총력 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 제주 제주도, 골프관광객 유치 마케팅 총력 온라인 기사 2015.03.11 10:42 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 제주관광공사 , 도내 골프장업계 중국국제골프박람회 참가 [일요신문] 제주관광공사는 고부가가치 중국 골프관광객 유치를 통한 도내 골프장 영업 활성화를 위해 13일부터 15일까지 3일간 중국 베이징에서 열리는 중국국제골프박람회에 참가한다. 중국골프협회가 주최하는 이번 박람회는 전 세계 30여개 국가와 지역에서 2만여명이 참가하는 아시아 최대 규모의 골프박람회(산업전)다. 박람회는 최근 골프관광객 감소로 경영의 어려움을 겪고 있는 제주지역 골프장업계 (타미우스, 라헨느, 세인트포, 아덴힐, 엘리시안 등) 가 직접 참가해 천혜의 자연환경과 경관, 국제적 경쟁력의 우수한 골프 인프라를 함께 홍보한다. 제주관광공사는 박람회 기간 제주골프 홍보부스를 마련하고 참관객 대상 퀴즈이벤트, 퍼터게임 등 다채로운 프로그램 진행을 통해 도내 30개 골프장에 대한 이해와 관심을 적극 유도할 계획이다. 이와 함께 지존골프 등 골프전문 아웃바운드 여행사와의 전략적 업무협의를 통해 제주관광공사 사장배골프대회와 연계한 융복합 힐링 골프상품을 개발하고 연간 1000여명의 중국 골프관광객을 유치할 방침이다. 현재 중국 전역에 운영 중인 골프장은 약 800개, 골프 인구는 약 800만명으로 추산되며 오는 2020년 2000만명을 상회할 것으로 전망되고 있다. 현성식 기자 ilyo99@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 제주 많이 본 뉴스 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 온라인 기사 ( 2021.06.21 15:50 ) JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 온라인 기사 ( 2021.06.17 18:53 ) 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 온라인 기사 ( 2021.06.21 15:34 ) 제주 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 3 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 8 '개는 훌륭하다' 사람 무서워하는 겁쟁이 듀오, 이경규 만나자마자 돌변 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 제주 많이 본 뉴스 1 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 2 JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 3 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 4 도민사회 분열 조장...오영훈, 송재호, 위성곤의원 사퇴 촉구 5 제주도경제통상진흥원 미국 바이어와 MOU 체결.수출상담회 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>[라이프 365] '제주도에 반한 유커'…절반은 제주 관광 外 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 연합뉴스 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 연합뉴스 언론사 구독 해지되었습니다. [라이프 365] '제주도에 반한 유커'…절반은 제주 관광 外 입력2015.03.17. 오전 11:16 수정2015.03.17. 오전 11:18 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [라이프 365] '제주도에 반한 유커'…절반은 제주 관광 外▶ '제주도에 반한 유커'…절반은 제주 관광▶ 외국인 한국음식 평가 "그냥 그래"…평점 C▶ '웰빙 바람'…샐러드 채소, '국민채소'에 등극▶ 4월 국민연금수급자 1.3% 오른 연금 받는다▶ 봄 오는 소리에 인테리어 상품 판매 '쑥쑥'(끝)[이 시각 많이 본 기사]☞ 진주 인력공사 사무실서 '묻지마 살인' 3명 사상☞ 투신직전 남성에 "뛰어내려" 외치고 촬영한 10대들 ☞ 신림동 연쇄방화, 범인은 공익요원…화나면 술 마시고 범행 ☞ 맥주 한잔한 전과자, 음주단속에 놀라 13㎞ 심야추격전 ☞ "교도소 가고싶다"…제 발로 경찰서 찾은 좀도둑 ▶연합뉴스 앱 지금 바로 다운받기~▶ [오늘의 HOT] 꽃으로 물들은 런웨이&lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; Copyright ⓒ 연합뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 섹션분류를 하지 않았습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 연합뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 연합뉴스 헤드라인 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 잠실 등 2020년보다 1억∼2억원 떨어져…'임대차2법' 상승분 반납해 "급전세도 안 나가"…기존 세입자도 가격 낮춰 계약, 보증금 내줘 금리 인상에 전세시장 약세 지속 전망…전문가 "임차인 피해 대비해야" (서울= 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 실제 충돌 시 현장 즉각 대응 원칙…"北에 더 큰 어려움 될 것" 경고 대통령실이 최근 북한의 잇따른 무력 도발 범위에 탄도미사일 시험 발사와 7차 핵실험뿐 아니라 재래식 국지 도발 가능성도 있다고 보고 대비하는 것 이재명 "종북몰이·색깔론, 해방 후 친일파 행태와 다를바 없어" 한미일 합동훈련 거듭 비판…"日을 한반도 끌어들이는 자충수" 더불어민주당 이재명 대표는 11일 한미일 3국의 동해 합동훈련과 관련, "(안보) 위기를 핑계로 일본을 한반도에 끌어들이는 자충수를 중단해야 한다"고 거듭 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 도로에 차 세워두고 잠들어…경찰, 절도 혐의도 수사 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 음주측정을 거부하다가 현행범으로 체포됐다. 경찰은 신씨가 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 이전 뉴스들 보기 3 다음 뉴스들 보기 연합뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 연합뉴스 헤드라인 더보기 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 5시간전 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 33분전 이재명 "종북몰이·색깔론, 해방 후 친일파 행태와 다를바 없어" 26분전 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 3시간전 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 6시간전 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 3시간전 연합뉴스 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 3시간전 2 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 3시간전 3 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 6시간전 4 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 5시간전 5 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 9시간전 1 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 3시간전 2 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 2시간전 3 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 5시간전 4 대통령실, 한미일 훈련에 "불났는데 이웃 힘 합치는 건 당연" 2시간전 5 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 재생하기 재생시간02:21 러, 키이우 등 우크라 전역에 보복 공격…우크라 “복수할 것” 러시아가 키이우 등 우크라이나 전역에 대대적 미사일 공격을 퍼부었습니다. 크림반도와 러시아 본토를 잇는 크림대교 폭발에 대한 보복 공격입니다. 70여명이 죽거나 다쳤는데 우크라이나는 복수를 다짐했고, 서방은 우크라이 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 서울 서초구에서 총기 사건이 발생해 경찰이 수사에 착수했다. 서울 서초경찰서는 11일 오전 5시 33분경 서초구 잠원동에서 50대 남성 A 씨가 권총으로 극단적 선택을 하려 했다고 보고 수사 중이다. 경찰 관계자는 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 최재해 감사원장이 ‘감사원은 대통령 국정운영을 지원하는 기관’이라는 국회 발언 등에 대한 설명을 요구하는 감사원 직원들의 면담 요구를 거부한 것으로 확인됐다. 이런 사실은 감사원 직원이 감사원 운영방식을 비판하는 취 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 “키스 5단계는” “치마 짧으면 좋아”… 중학교 선생님이 이런 농담을 중학생들에게 성적 농담 등의 부적절한 발언을 했다가 해임된 교사가 징계 처분에 불복해 민사 소송을 냈지만 패소했다. 기사와 무관함 (사진=이미지투데이) 11일 인천지법 민사11부(정창근 부장판사)는 전직 중학교 교사 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' 전 세계적으로 코로나19가 잠잠해지자 아프리카에서 또 다른 감염병 경고등이 들어왔다. 치명률이 50%에 육박하는 에볼라 바이러스다. 한 달 사이 벌써 30여명이 사망했고 2014년 에볼라가 유입된 경험이 있는 미국엔 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 재생하기 재생시간03:19 [단독] 'SLBM 개발' 국방과학연구소, 5년 동안 160명 떠났다 지난해 세계 7번째로 잠수함 발사 탄도미사일, SLBM 개발에 성공한 국방과학연구소에서 최근 5년 동안 160명 넘는 연구 인력이 퇴사한 것으로 YTN 취재 결과 파악됐습니다. SLBM 개발은 물론, 핵심 국방기술을 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 대통령실이 윤석열 대통령의 ‘비속어 논란 보도’와 관련 수사를 받는 &lt;문화방송&gt;(MBC)을 향해 “기본적으로 공영방송이 책임을 다하고 있느냐는 질문에 대해 답이 필요하다”고 압박했다. 대통령실의 이재명 부대변인은 1 80대 노모 생신에 일가족 5명 참변..尹대통령 "대책마련" 지시 80대 어머니 생일을 맞아 시골집에 모였던 일가족 5명이 숨진 사고를 조사 중인 경찰과 소방당국이 '일산화탄소 중독'을 잠정 사망 원인으로 결론지었다. 현장에 함께 있던 일가족 6명 중 유일한 생존자인 큰딸은 집 안 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 “집값 떨어졌는데 분양가가 왜이래?” 사전청약 포기하는 당첨자들 집값 오를땐 신청 몰렸지만 시세와 비슷, 역전되자 외면 작년 400대 1까지 육박한 경쟁률 올해는 40%나 계약 철회한 곳도 지난달 LH(한국토지주택공사)는 작년 사전 청약을 했던 ‘인천검단AA21블록’에 대한 본청 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 "주택대출 안 갚겠다" 뿔난 서민들…무너지는 중국 부동산 중국 경제의 핵심 축인 부동산산업에 경고음이 울리고 있다. 오는 16일 개막하는 중국 공산당 전국대표대회(당대회)에서 지도부가 어떤 대응책을 내놓을지 주목된다. 10일 시장정보 업체 중국부동산정보(CRIC)에 따르면 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 이전 뉴스들 보기 5 다음 뉴스들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 연합뉴스 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도, 이슬람권 관광객 대상 설문조사 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 이슬람권 관광객 대상 설문조사 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 이슬람권 관광객 대상 설문조사 송고시간2015-03-12 14:45 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 제주도와 제주도관광협회는 3∼6월 이슬람권 관광객 400명을 대상으로 제주 관광에 대한 설문조사를 진행한다고 12일 밝혔다. 이슬람권 관광객 유치 확대를 위한 이번 조사는 전문 연구기관이 제주관광 만족도와 지출규모, 여행 행태 등에 대해 설문하는 방식으로 이뤄진다. 제주도 등은 또 4월과 7월 중 관광사업체 100곳을 대상으로 이슬람 문화에 대한 소양을 교육하며, '할랄' 전문 레스토랑 개설도 지원하기로 했다. 할랄은 이슬람 율법에 따라 먹거나 사용할 수 있다는 뜻으로, 이슬람의 매우 까다로운 생활습관을 의미한다. 광고 도관광협회는 지난 6일 제주이슬람 문화센터와 이슬람 문화교육 시행 등을 위한 업무협약을 맺었다. 오문향 도관광협회 정책팀장은 "이슬람 교인은 동남아시아와 중동, 아프리카 지역을 합하면 전 세계 인구의 약 25％를 차지한다"며 "이 가운데 인도네시아와 말레이시아, 싱가포르 등의 동남아시아 국가는 경제성장을 발판으로 외국여행 수요가 점차 증가하고 있다"고 말했다. 도관광협회는 인도네시아·말레이시아·싱가포르 3개 나라에서 이슬람 관광객 총 6만8천108명이 지난해 제주를 찾은 것으로 추정하고 있다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/03/12 14:45 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '비밀의 집' 서하준 "일일극은 연기 공부하기 좋은 기회" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 신규확진 1만5476명…사망 10명, 석달새 최소 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>국제전기자동차엑스포 조직위-제주도관광협회 MOU &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 국제전기자동차엑스포 조직위-제주도관광협회 MOU 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 국제전기자동차엑스포 조직위-제주도관광협회 MOU 기자명 고나연 기자 입력 2015.03.12 15:59 수정 2015.03.12 16:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 "엑스포 성공개최, 국내외 관광객 유치 적극 협력키로" (제주=국제뉴스) 고나연 기자 = 국제전기자동차엑스포 조직위원회와 제주도관광협회가 12일 오전 11시 제주국제컨벤션센터에서 업무협약식을 가졌다.이번 협약을 통해 양 기관은 제2회 국제전기자동차엑스포의 성공적 개최뿐만 아니라 향후 개최되는 국제전기자동차 엑스포와 관련해 지속적으로 긴밀하게 협력해 나갈 것을 약속했다.이는 제주에서 열리는 국제전기자동차엑스포를 성공적 추진하며, 엑스포를 통한 국내외 관광객 유치에 적극 협력하기로 뜻을 같이 했다.또한 두 기관은 상호 추진하는 사업에 대해 적극적으로 참여해 제주를 알리는데 같이 힘써나가기로 했다. 이 자리에서 김대환 국제전기자동차엑스포조직위원장은 "국제전기자동차엑스포와 제주관광의 발전이 함께 성장할 수 있는 기회가 된 것 같아 기쁘다"며 "제주관광을 위해 양 기관이 더욱 긴밀한 관계를 유지하게 될 것을 기대한다"고 말했다.김영진 제주도관광협회 회장도 "제주관광을 이끌어나가는 관광협회가 세계적인 국제전기자동차엑스포의 성공적 개최에 동참하게 되어 매우 뜻깊게 생각하며 제주도가 세계전기자동차의 메카로 도약하는 발판의 장이되기를 바란다"고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 마이애미 크루즈박람회 참가 제주홍보 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-제주관광공사, 마이애미 크루즈박람회 참가 제주홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-제주관광공사, 마이애미 크루즈박람회 참가 제주홍보 기자명 고나연 기자 입력 2015.03.15 17:04 수정 2015.03.15 17:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주도와 제주관광공사(사장 최갑열)는 16일부터 19일까지 3일간 미국 마이애미에서 개최되는 세계 최대 규모의 크루즈산업 박람회인 '크루즈쉬핑 마이애미 2015'에 참가해 세계 크루즈산업 관계자들 대상 제주의 다양한 매력과 크루즈인프라를 홍보한다고 15일 밝혔다.도와 제주관광공사는 지속적인 국제크루즈의 제주 유치를 위해 마이애미 현지 관계자 대상 설명회 개최 및 홍보부스 운영 등을 통해 기항지 제주의 매력을 알린다.또한 곧 완공예정인 제주국제크루즈터미널과 제주항, 서귀포항의 향후 선석확충계획 등 크루즈인프라를 적극 홍보한다.이와 함께 이번 박람회 기간에 제주관광공사는 오는 8월 열리는 제3회 제주국제크루즈포럼의 홍보와 향후 공동으로 크루즈마케팅을 추진하기 위한 관계기관과의 협력을 다지는 만찬행사를 개최할 예정이다.도는 이번 행사에 홍보효과를 극대화해 제주국제크루즈포럼이 아시아를 대표하는 크루즈이벤트로 자리 잡는 데 초석을 마련한다. 제주국제크루즈포럼은 국내 최초 크루즈 전문포럼으로 2013년 10월 처음 개최됐으며, 지난해 제주특별자치도, 해양수산부가 공동으로 주최해 국내외 1000여명의 크루즈관계자들이 참가하는 등 성공적으로 개최된 바 있다.크루즈쉬핑 마이애미 박람회는 매년 3월 크루즈의 수도로 일컬어지는 미국 마이애미에서 개최되는 B2B 산업박람회로 업계 주요관계자 1만1000여명 및 127개국 900여개의 업체가 컨퍼런스(회의) 및 전시에 참여한다.한편 지난해 제주를 찾은 크루즈관광객은 59만명을 돌파하는 등 꾸준한 성장을 이어오고 있으며 올해 말까지 제주를 찾는 국제크루즈는 320항차, 크루즈관광객은 65만명에 이를 것으로 전망하고 있다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '황금버스', 빈 차 공회전 언제까지… - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회 '황금버스', 빈 차 공회전 언제까지… 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회 '황금버스', 빈 차 공회전 언제까지… 제주CBS 박정섭 기자 메일보내기 2015-03-05 10:00 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 하루 탑승객 30명 안된 채 혈세만 줄줄 지난 4일 오후. 때마침 제주를 찾아온 꽃샘추위를 털어내며 제주도관광협회가 운행하는 시티투어버스 '제주황금버스'에 올랐다. 지난해 11월 11일 운행을 시작한지 100일을 넘은 현 시점에서 관광객들의 반응을 살피기 위해서다.외부와 내부 모두를 번뜩이는 황금색으로 치장하고, 차량번호 역시 중국에서 부를 상징하는 숫자 8과 장수를 의미하는 9를 넣은 번호판까지 우선 주위 시선을 끄는 데는 성공했다.오전 8시부터 밤 9시까지 제주웰컴센터에서 매시 정각 출발해 제주시내 22개 정거장을 한차례 도는 데 걸리는 시간은 100분.예사롭지 않은 모양새에 특히 외국관광객의 관심을 끄는 데는 성공했을지 몰라도 예상대로 승객을 끄는 데는 오늘도 실패했다.이 날 기자가 탄 버스가 제주시내를 한바퀴 돌아오는 동안 버스에 탑승한 관광객은 모두 7명. 내국인 4명과 말레이시아인 1명, 싱가포르인 2명이 전부다.출발지에서 버스에 오른 말레이시아 관광객 재키(26)씨는 "넓은 버스에 탑승객이 나혼자뿐이어서 처음엔 무서웠다"며 서툰 한국말로 탑승 소감을 밝혔다.제주공항에서 탑승한 관광객 김영희(61·광주광역시)씨는 "이번이 내 생애 첫 제주 여행이라 택시를 타기가 그래서 숙박업소까지 이동하는 데 황금버스를 이용하게 됐다"며 시티투어버스 탑승에 큰 의미를 부여하지는 않았다.중국 관광객을 겨냥한 제주도관광협회 시티투어 버스 사업의 공회전이 길어지고 있다.수억원의 도민 혈세가 투입되고 있는데도 불구, 하루에 불과 20명 안팎이 탑승하는 등 제주관광 경쟁력을 높이는데 아무런 도움이 되지 않아 사업 타당성을 되짚어야 한다는 목소리만 커지고 있다. 제주도관광협회에 따르면 지난해 11월11일 첫 운행이후 지난달까지 황금버스 탑승객은 2,877명.하루 평균 30명이 되지 않는다. 하루 12차례 운행되는 걸 감안하면 버스 한차례 운행당 탑승객이 3명도 되지 않는 셈이다.지난해 버스 정류소 등 인프라구축비에 4억5천만원의 제주도 보조금이 투입되고, 올해 다시 3억5천만원이 지원되는 등 8억원의 혈세가 들어가는데도 효과가 없다보니 '밑빠진 독에 물붓기'사업이란 지적을 피하지 못하고 있다.성인 만2천원, 청소년 만원이라는 탑승요금 역시 외국관광객들이 비싸다며 꺼리고 있다는 얘기도 나돈다.제주도의회의 2015년도 업무보고 자리에서 도의원들은 "타당성도 없는 사업에 이렇게 예산을 쏟아 부어도 되는 것이냐"며 질타의 목소리가 쏟아지기도 했다. 그렇다고 황금버스가 마냥 욕을 먹을 정도로 콘텐츠가 나쁜 건 아니다.GPS방식을 도입해 영어와 중국어, 일본어 등 4개 국어로 각 정류장 주변 관광지와 도시 특성을 소개하고, 탑승객에게 삼다수와 열쇠고리 등을 증정하는 이벤트도 마련된다.다양한 제주관광 안내 책자가 좌석마다 비치되고, 탑승객을 위해 제주시내 상가들과 할인 제휴도 맺었다.개별 관광객들이 선호하는 재래시장과 수목원, 주요 관광지를 빠짐없이 경유하는 것 역시 황금버스의 매력 가운데 하나다.제주도관광협회 사업운영실 양성우 실장은 "사업 초기인데다 관광 비수기인 겨울철 탑승객이 저조할 수밖에 없었다"며 "개별관광객이 집중되는 여름이 되면 좌석이 모자라 정류장을 지나쳐야 할 정도로 탑승객이 넘칠 것"이라고 장담했다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 [칼럼]핵위협 공포에 휩싸인 한반도 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" '택시 연 매출, 배달업의 1/3에 불과' 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도/서귀포 펜션 이로제주, 호텔식펜션으로 관광객에게 각광 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 제주도/서귀포 펜션 이로제주, 호텔식펜션으로 관광객에게 각광 발행일 : 2015-03-13 11:31 4계절 내내 관광객들의 발길이 끊이지 않는 국내 최고의 여행지 제주도에 봄이 찾아왔다. 차가운 겨울바람이 물러가면서 제주도의 봄을 만끽하기 위해 국내/외 관광객들의 수가 증가하고 있다. 제주도만이 품고 있는 아름다운 자연경관과 볼거리, 다양한 먹을거리도 여행의 즐거움을 높여주는 필수 요소다. 특히, 숙박은 여행 시 지친 몸과 마음에 휴식을 취하는 곳이기 때문에 숙박업소를 선정할 때에 신중해야 한다. 많은 사람이 선호하는 숙박시설 가운데 가장 인기가 높은 ‘펜션’은 가족, 연인, 친구와 함께 머물며 맛있는 요리도 함께 만들어 먹을 수 있고, 조용한 곳에서 편히 쉴 수 있기 때문에 찾는 이들이 많다. 펜션 중에서도 깔끔하고 진정한 힐링과 함께 가격대가 부담스럽지 않은 곳이 인기가 많은데, 호텔과 같은 쾌적한 객실을 보유하고 있으면서 가격은 호텔보다 저렴해 제주도 펜션 추천 1순위를 차지하는 곳이 있다. 제주도 남쪽 끝 대평리에 있는 제주도 펜션 ‘이로(IRO)제주펜션’은 호텔과 민박의 장점만을 부각한 신개념 호텔식 펜션으로 많은 관광객에게 호평을 받고 있다. 이로제주펜션은 객실마다 모던하고 깔끔한 인테리어로 호텔의 고급스러움을 접목해, 호텔과는 다르게 펜션 앞에 펼쳐진 아름다운 경관을 한눈에 볼 수 있도록 통유리를 설치했다. 또한 제주도의 따스하면서도 시원한 봄바람을 맞을 수 있도록 마련된 각 객실의 베란다에서 따스한 봄볕 아래 펼쳐지는 자연경관을 볼 수 있어 진정한 힐링을 선사한다. 또한, 개별 테라스가 있어 다른 이들의 시선에 구애 받지 않고 즐겁고 분위기 있는 바비큐 타임을 즐길 수도 있다. 이로제주의 객실은 Studio, Duplex 1Bed, Duplex 2Bed, Deluxe, Suite 등으로 나뉘어 있어 선택의 폭이 넓다. 지리적으로 마라도, 가파도, 한라산을 동시에 아우르는 이로제주는 자연의 氣를 받거나, 펜션 근처에 있는 명소들을 보기 위해 찾는 이들도 많다. 이로제주 인근에는 MBC에서 인기리에 방영되었던 드라마 &lt;구가의 서&gt;의 명장면을 탄생시킨 안덕계곡이 3Km 떨어진 곳에 자리하고 있다. 장선우 감독의 &lt;물고기 카페&gt;, &lt;인간극장&gt; 등의 방송을 통해 소개된 카페 ‘거닐다’를 보기 위한 관광객들의 발길이 이어지고 있다. 또한 이로제주는 올레길 8번 종점과 9번 시작점 인근에 위치해 있어 도보 여행 후 휴식을 위해 제주도펜션 이로제주를 찾는 관광객들도 많다. 제주도 가족펜션, 제주도 커플펜션으로 유명한 이로제주에서 여행에서 쌓인 피로를 풀고 진정한 힐링을 만끽해 보는 것은 어떨까. 제주도/서귀포 펜션 이로제주에 대한 자세한 사항 및 예약은 홈페이지(www.irojeju.com)를 통해 알 수 있다. 온라인뉴스팀 on-news@etnews.com 핫뉴스 in LIFE 1 송가인, 전국투어 콘서트 매진 행렬... "웃돈 줘도 살 수 없다" 2 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 3 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 4 송가인 X 금잔디, 털털함으로 뭉친 트롯 여신들 5 “한복 입은 가인이어라♥”…송가인, ‘치명적 단아美’ [화보] AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 인니 여행사 초청 제주관광투어 진행 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 인니 여행사 초청 제주관광투어 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 인니 여행사 초청 제주관광투어 진행 기자명 고나연 기자 입력 2015.03.03 17:11 수정 2015.03.03 17:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도와 도관광협회(회장 김영진)는 2일부터 3일까지 인도네시아 대형 여행사인 바유부아나 여행사 사장 및 임원단을 초청해 제주관광 상품 개발을 위한 스터디투어를 진행했다고 3일 밝혔다.이번 스터디투어는 인도네시아 연휴기간을 겨냥해 고부가가치 제주관광 상품 개발을 위한 바유부아나 여행사의 실질적 의사 결정권을 갖고 있는 사장 및 고위 임원진이 직접 제주 우수관광 자원을 답사했다.이에 따라 적극적인 제주관광 상품 개발 확대와 잠재 가능성을 확인해 향후 동남아 관광객 제주 유치에 크게 기여 할 것으로 보고 있다. 또한 제주 첫 관문인 공항에서부터의 환대 분위기 조성을 통해 제주 친절 이미지 및 만족도를 제고시켜 국제관광 도시로서의 제주 위상을 드높여 나갔다. 관계자는 "앞으로 도관광협회는 고품격 질적성장을 위한 동남아 지역 신흥 관광시장의 고부가가치 잠재 관광객 수요 창출을 통해 도내 관광업계가 참여하는 실질적인 마케팅 활동을 지속적으로 전개해 나갈 계획"이라고 말했다.한편 '바유부아나(Bayu Buana Travel Services)' 여행사는 지난 1972년도에 설립해 직원 수가 500여명의 인도네시아 여행업계 TOP5에 속하는 대형 여행사다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다" &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 김영진 제주도관광협회장 취임 "새로운 혁신의 길 걷겠다" 기자명 고나연 기자 입력 2015.03.02 15:03 수정 2015.03.02 15:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 “스마트 경영환경 구현도 강력 추진” ▲ 취임사하는 김영진 제주도관광협회 회장. (제주=국제뉴스) 고나연기자 = 2일 제주도관광협회에 따르면 이날 오후 2시 제주웰컴센터 3층 대회의실에서 제33대 제주특별자치도관광협회에 김영진 회장의 취임식이 개최됐다.이날 취임식에는 제주특별자치도관광협회 역대임원, 대의원, 업종별 분과위원회 운영위원 등이 참석해 내부 행사로 간소하게 진행됐다.김영진 회장은 이날 취임사에서 "지난 4년간 관광협회의 정체성을 다시 한번 정립하고, 제주관광종합포털사이트 구축 등 협회와 관광산업의 지속 가능한 발전의 토대를 마련 할 수 있었던 것은 관광가족들의 관심과 애정, 지지가 있었기에 가능했다"고 말했다.또한 "지금 관광산업은 혁명적인 변화가 진행되고 있다"며 "이런 변화의 흐름을 감지하고 이에 적응해 새로운 관광산업 생태계를 주도적으로 조성해나가는 것이 관광인들에게 주어진 지상과제"라고 강조했다. 이어 김회장은 "IT, 모바일, SNS가 지배하는 세상에 능동적이고 체계적으로 대응하기 위해 제주관광 산업 전반에 스마트 경영환경이 구현되도록 강력하게 추진해 나가겠다"고 포부도 밝혔다.그는 "주어진 3년이 제주관광의 역사에 길이 기억되도록 새로운 혁신의 길을 걸어 나가겠다"고 밝히며 변함없는 지지를 당부했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -431,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -491,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +600,111 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
